--- a/length-test-result.xlsx
+++ b/length-test-result.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenge\IdeaProjects\INFO-H417-group4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0150496-AEB3-40F8-92EA-8BAD83FE0279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6459B95D-D843-4267-A11F-254447F3AFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="length-test-result" sheetId="1" r:id="rId1"/>
     <sheet name="LineReader" sheetId="4" r:id="rId2"/>
     <sheet name="BufferedReader" sheetId="5" r:id="rId3"/>
-    <sheet name="mappedReader" sheetId="3" r:id="rId4"/>
+    <sheet name="Synthesis of readers" sheetId="6" r:id="rId4"/>
     <sheet name="SingleCharacter" sheetId="2" r:id="rId5"/>
+    <sheet name="mappedReader" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="24">
   <si>
     <t>Benchmark</t>
   </si>
@@ -93,6 +94,9 @@
   </si>
   <si>
     <t>role_type.csv</t>
+  </si>
+  <si>
+    <t>cast_info.csv</t>
   </si>
 </sst>
 </file>
@@ -700,6 +704,666 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>LineReader!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>benchmark.LengthBenchmark.lineReader</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>LineReader!$I$1:$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>comp_cast_type.csv</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kind_type.csv</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>role_type.csv</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>link_type.csv</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>info_type.csv</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>movie_link.csv</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>keyword.csv</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>company_name.csv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LineReader!$E$1:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.8462000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2465000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2276000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2708000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.138E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1442270000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.023194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.360021000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D15F-4AFC-ADD1-84C423FA7AF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1444854447"/>
+        <c:axId val="1444855695"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1444854447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1444855695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1444855695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1444854447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LineReader!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>benchmark.LengthBenchmark.lineReader</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LineReader!$K$1:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>656584</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3791536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17802021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LineReader!$E$1:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.8462000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2465000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2276000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2708000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.138E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1442270000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.023194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.360021000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B6F2-4D6D-9B1A-5BF821617060}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1444854447"/>
+        <c:axId val="1444855695"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1444854447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1444855695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1444855695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1444854447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>BufferedReader!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1219,7 +1883,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1968,7 +2632,4269 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>LineReader!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>benchmark.LengthBenchmark.lineReader</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>LineReader!$I$1:$I$9</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>comp_cast_type.csv</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kind_type.csv</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>role_type.csv</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>link_type.csv</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>info_type.csv</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>movie_link.csv</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>keyword.csv</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>company_name.csv</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>cast_info.csv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>LineReader!$E$1:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.8462000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2465000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2276000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2708000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.138E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1442270000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.023194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.360021000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-699B-4121-84E5-0C07E626CA62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BufferedReader!$H$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>131072</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>BufferedReader!$E$43:$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.7681E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7478000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7134999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8858999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4617999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8537940000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.632095</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.209243999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-699B-4121-84E5-0C07E626CA62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SingleCharacter!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>benchmark.LengthBenchmark.singleCharacterReader</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SingleCharacter!$E$1:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.8325000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8865000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9193999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3867999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9656000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4578939999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.445694000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>277.60077200000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-699B-4121-84E5-0C07E626CA62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mappedReader!$H$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>mappedReader!$E$51:$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>59.720064999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.863726</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3541300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.144013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13502700000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16032399999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.154004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14760699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-699B-4121-84E5-0C07E626CA62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1447393663"/>
+        <c:axId val="1447394079"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1447393663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1447394079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1447394079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1447393663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SingleCharacter!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>benchmark.LengthBenchmark.singleCharacterReader</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>SingleCharacter!$H$1:$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>comp_cast_type.csv</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kind_type.csv</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>role_type.csv</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>link_type.csv</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>info_type.csv</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>movie_link.csv</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>keyword.csv</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>company_name.csv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SingleCharacter!$E$1:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.8325000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8865000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9193999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3867999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9656000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4578939999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.445694000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>277.60077200000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D5BD-43FC-B914-F31C80AD1084}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SingleCharacter!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>benchmark.LengthBenchmark.singleCharacterReader</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>SingleCharacter!$H$1:$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>comp_cast_type.csv</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kind_type.csv</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>role_type.csv</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>link_type.csv</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>info_type.csv</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>movie_link.csv</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>keyword.csv</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>company_name.csv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SingleCharacter!$E$1:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.8325000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8865000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9193999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3867999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9656000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4578939999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.445694000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>277.60077200000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D5BD-43FC-B914-F31C80AD1084}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1437003263"/>
+        <c:axId val="1436999935"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1437003263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1436999935"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1436999935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1437003263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SingleCharacter!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>benchmark.LengthBenchmark.singleCharacterReader</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SingleCharacter!$N$1:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>656584</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3791536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17802021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SingleCharacter!$E$1:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.8325000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8865000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9193999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3867999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9656000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4578939999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.445694000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>277.60077200000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F73-4822-A7DB-F86215A9466D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1437003263"/>
+        <c:axId val="1436999935"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1437003263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1436999935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1436999935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1437003263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BufferedReader!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>BufferedReader!$I$1:$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>comp_cast_type.csv</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kind_type.csv</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>role_type.csv</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>link_type.csv</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>info_type.csv</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>movie_link.csv</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>keyword.csv</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>company_name.csv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mappedReader!$E$1:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>309.81757700000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.671840000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.263610999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.383408</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7719259999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1762790000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3510409999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.100579</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B6E4-43EF-8ED4-1DE6B0B6EC50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BufferedReader!$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>mappedReader!$E$11:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>122.998852</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.887587000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.246804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32927200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.592449</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21263099999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.367228</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23605699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B6E4-43EF-8ED4-1DE6B0B6EC50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BufferedReader!$H$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>mappedReader!$E$21:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>109.48272299999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.109575</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4020800000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.148204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34218999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17263000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20899699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16848399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B6E4-43EF-8ED4-1DE6B0B6EC50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BufferedReader!$H$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>mappedReader!$E$31:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>63.587524000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.129331000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.56833</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.169517</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21640200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14574400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14164099999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14118800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B6E4-43EF-8ED4-1DE6B0B6EC50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BufferedReader!$H$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>131072</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>mappedReader!$E$41:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>61.287602999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.196961999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4637639999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16777800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.166627</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.148921</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13467399999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.132082</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B6E4-43EF-8ED4-1DE6B0B6EC50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BufferedReader!$H$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>mappedReader!$E$51:$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>59.720064999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.863726</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3541300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.144013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13502700000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16032399999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.154004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14760699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B6E4-43EF-8ED4-1DE6B0B6EC50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="261705727"/>
+        <c:axId val="261708223"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="261705727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261708223"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="261708223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261705727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BufferedReader!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>BufferedReader!$K$1:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>656584</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3791536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17802021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mappedReader!$E$1:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>309.81757700000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.671840000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.263610999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.383408</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7719259999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1762790000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3510409999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.100579</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51FC-45FA-82F6-FA1115FC6CAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BufferedReader!$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>BufferedReader!$K$1:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>656584</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3791536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17802021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mappedReader!$E$11:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>122.998852</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.887587000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.246804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32927200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.592449</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21263099999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.367228</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23605699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-51FC-45FA-82F6-FA1115FC6CAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BufferedReader!$H$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>BufferedReader!$K$1:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>656584</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3791536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17802021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mappedReader!$E$21:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>109.48272299999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.109575</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4020800000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.148204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34218999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17263000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20899699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16848399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-51FC-45FA-82F6-FA1115FC6CAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BufferedReader!$H$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>BufferedReader!$K$1:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>656584</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3791536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17802021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mappedReader!$E$31:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>63.587524000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.129331000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.56833</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.169517</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21640200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14574400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14164099999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14118800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-51FC-45FA-82F6-FA1115FC6CAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BufferedReader!$H$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>131072</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>BufferedReader!$K$1:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>656584</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3791536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17802021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mappedReader!$E$41:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>61.287602999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.196961999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4637639999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16777800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.166627</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.148921</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13467399999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.132082</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-51FC-45FA-82F6-FA1115FC6CAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BufferedReader!$H$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>262144</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>BufferedReader!$K$1:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>656584</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3791536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17802021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mappedReader!$E$51:$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>59.720064999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.863726</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3541300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.144013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13502700000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16032399999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.154004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14760699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-51FC-45FA-82F6-FA1115FC6CAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="261705727"/>
+        <c:axId val="261708223"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="261705727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261708223"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="261708223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261705727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F1A0613-8CEC-4E38-9A00-7409E85FA768}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02F67C08-1F07-42D7-8B21-0BAF5EB38698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2025,6 +6951,207 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{633554E1-6AA6-4C3E-9A3C-E64649286899}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC21C1FE-77E7-4BCC-A7CD-0D82A2A9DE02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{418AF06B-32D3-4400-B795-7D7B0CD9DC6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00F9089-6686-45EF-9F5A-E87A627E3118}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA4B9F28-5CAD-41A9-AED4-76784BD5B987}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A0C25FB-ABBE-449A-A5DE-EC367D13CD22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2346,8 +7473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I49" sqref="A2:I49"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5618,15 +10745,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E4644A-3067-44D8-873D-61CB4F736159}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I9"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -5640,19 +10767,22 @@
         <v>8</v>
       </c>
       <c r="E1">
-        <v>52.360021000000003</v>
+        <v>3.8462000000000003E-2</v>
       </c>
       <c r="F1">
-        <v>0.82138699999999998</v>
+        <v>1.572E-3</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="K1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5666,19 +10796,22 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>3.8462000000000003E-2</v>
+        <v>4.2465000000000003E-2</v>
       </c>
       <c r="F2">
-        <v>1.572E-3</v>
+        <v>7.85E-4</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -5692,19 +10825,22 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>4.138E-2</v>
+        <v>4.2276000000000001E-2</v>
       </c>
       <c r="F3">
-        <v>1.101E-3</v>
+        <v>8.3000000000000001E-4</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="K3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -5718,19 +10854,22 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>12.023194</v>
+        <v>4.2708000000000003E-2</v>
       </c>
       <c r="F4">
-        <v>1.6552000000000001E-2</v>
+        <v>9.01E-4</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -5744,19 +10883,22 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>4.2465000000000003E-2</v>
+        <v>4.138E-2</v>
       </c>
       <c r="F5">
-        <v>7.85E-4</v>
+        <v>1.101E-3</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -5770,19 +10912,22 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>4.2708000000000003E-2</v>
+        <v>1.1442270000000001</v>
       </c>
       <c r="F6">
-        <v>9.01E-4</v>
+        <v>4.463E-3</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="K6">
+        <v>656584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5796,19 +10941,22 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>1.1442270000000001</v>
+        <v>12.023194</v>
       </c>
       <c r="F7">
-        <v>4.463E-3</v>
+        <v>1.6552000000000001E-2</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>3791536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -5822,19 +10970,22 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>4.2276000000000001E-2</v>
+        <v>52.360021000000003</v>
       </c>
       <c r="F8">
-        <v>8.3000000000000001E-4</v>
+        <v>0.82138699999999998</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <v>17802021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -5857,11 +11008,18 @@
         <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="K9">
+        <v>1418137141</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:K9">
+    <sortCondition ref="K1:K9"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5869,7 +11027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145B062D-5AE1-4863-A94E-C97AEBE96E69}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="H7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L36" sqref="K35:L36"/>
     </sheetView>
   </sheetViews>
@@ -7422,1423 +12580,40 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC3DC91-1310-441D-B395-184956B4CCC8}">
-  <dimension ref="A1:I58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF70671-C37F-4DDD-8E24-5136699B79D0}">
+  <dimension ref="I40:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:I58"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>8</v>
-      </c>
-      <c r="E1">
-        <v>309.81757700000003</v>
-      </c>
-      <c r="F1">
-        <v>6.0307000000000004</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1">
-        <v>1024</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>1.7719259999999999</v>
-      </c>
-      <c r="F2">
-        <v>0.82324900000000001</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2">
-        <v>1024</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>1.3510409999999999</v>
-      </c>
-      <c r="F3">
-        <v>1.3711450000000001</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3">
-        <v>1024</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>69.671840000000003</v>
-      </c>
-      <c r="F4">
-        <v>2.9355609999999999</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4">
-        <v>1024</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>1.383408</v>
-      </c>
-      <c r="F5">
-        <v>0.74310900000000002</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5">
-        <v>1024</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>1.1762790000000001</v>
-      </c>
-      <c r="F6">
-        <v>1.1201490000000001</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6">
-        <v>1024</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>14.263610999999999</v>
-      </c>
-      <c r="F7">
-        <v>3.0265879999999998</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7">
-        <v>1024</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>1.100579</v>
-      </c>
-      <c r="F8">
-        <v>1.1830419999999999</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <v>1024</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>122.998852</v>
-      </c>
-      <c r="F11">
-        <v>4.8191610000000003</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11">
-        <v>4096</v>
-      </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>0.592449</v>
-      </c>
-      <c r="F12">
-        <v>1.033218</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12">
-        <v>4096</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>0.367228</v>
-      </c>
-      <c r="F13">
-        <v>0.73179400000000006</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13">
-        <v>4096</v>
-      </c>
-      <c r="I13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>34.887587000000003</v>
-      </c>
-      <c r="F14">
-        <v>3.66587</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14">
-        <v>4096</v>
-      </c>
-      <c r="I14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>0.32927200000000001</v>
-      </c>
-      <c r="F15">
-        <v>0.65156800000000004</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15">
-        <v>4096</v>
-      </c>
-      <c r="I15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>0.21263099999999999</v>
-      </c>
-      <c r="F16">
-        <v>0.28990500000000002</v>
-      </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16">
-        <v>4096</v>
-      </c>
-      <c r="I16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <v>6.246804</v>
-      </c>
-      <c r="F17">
-        <v>1.1098889999999999</v>
-      </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17">
-        <v>4096</v>
-      </c>
-      <c r="I17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>8</v>
-      </c>
-      <c r="E18">
-        <v>0.23605699999999999</v>
-      </c>
-      <c r="F18">
-        <v>0.429838</v>
-      </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18">
-        <v>4096</v>
-      </c>
-      <c r="I18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>8</v>
-      </c>
-      <c r="E21">
-        <v>109.48272299999999</v>
-      </c>
-      <c r="F21">
-        <v>2.4040499999999998</v>
-      </c>
-      <c r="G21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21">
-        <v>16384</v>
-      </c>
-      <c r="I21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>8</v>
-      </c>
-      <c r="E22">
-        <v>0.34218999999999999</v>
-      </c>
-      <c r="F22">
-        <v>0.71499699999999999</v>
-      </c>
-      <c r="G22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22">
-        <v>16384</v>
-      </c>
-      <c r="I22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>8</v>
-      </c>
-      <c r="E23">
-        <v>0.20899699999999999</v>
-      </c>
-      <c r="F23">
-        <v>0.37517400000000001</v>
-      </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23">
-        <v>16384</v>
-      </c>
-      <c r="I23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>8</v>
-      </c>
-      <c r="E24">
-        <v>17.109575</v>
-      </c>
-      <c r="F24">
-        <v>1.2752680000000001</v>
-      </c>
-      <c r="G24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24">
-        <v>16384</v>
-      </c>
-      <c r="I24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>8</v>
-      </c>
-      <c r="E25">
-        <v>0.148204</v>
-      </c>
-      <c r="F25">
-        <v>2.7481999999999999E-2</v>
-      </c>
-      <c r="G25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25">
-        <v>16384</v>
-      </c>
-      <c r="I25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>8</v>
-      </c>
-      <c r="E26">
-        <v>0.17263000000000001</v>
-      </c>
-      <c r="F26">
-        <v>4.3985999999999997E-2</v>
-      </c>
-      <c r="G26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26">
-        <v>16384</v>
-      </c>
-      <c r="I26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>8</v>
-      </c>
-      <c r="E27">
-        <v>3.4020800000000002</v>
-      </c>
-      <c r="F27">
-        <v>0.35112700000000002</v>
-      </c>
-      <c r="G27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27">
-        <v>16384</v>
-      </c>
-      <c r="I27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>8</v>
-      </c>
-      <c r="E28">
-        <v>0.16848399999999999</v>
-      </c>
-      <c r="F28">
-        <v>2.0591999999999999E-2</v>
-      </c>
-      <c r="G28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28">
-        <v>16384</v>
-      </c>
-      <c r="I28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>8</v>
-      </c>
-      <c r="E31">
-        <v>63.587524000000002</v>
-      </c>
-      <c r="F31">
-        <v>0.61327500000000001</v>
-      </c>
-      <c r="G31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31">
-        <v>65536</v>
-      </c>
-      <c r="I31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>8</v>
-      </c>
-      <c r="E32">
-        <v>0.21640200000000001</v>
-      </c>
-      <c r="F32">
-        <v>0.41789500000000002</v>
-      </c>
-      <c r="G32" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32">
-        <v>65536</v>
-      </c>
-      <c r="I32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>8</v>
-      </c>
-      <c r="E33">
-        <v>0.14164099999999999</v>
-      </c>
-      <c r="F33">
-        <v>1.7852E-2</v>
-      </c>
-      <c r="G33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33">
-        <v>65536</v>
-      </c>
-      <c r="I33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>8</v>
-      </c>
-      <c r="E34">
-        <v>14.129331000000001</v>
-      </c>
-      <c r="F34">
-        <v>0.648536</v>
-      </c>
-      <c r="G34" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34">
-        <v>65536</v>
-      </c>
-      <c r="I34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>8</v>
-      </c>
-      <c r="E35">
-        <v>0.169517</v>
-      </c>
-      <c r="F35">
-        <v>5.7532E-2</v>
-      </c>
-      <c r="G35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35">
-        <v>65536</v>
-      </c>
-      <c r="I35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>8</v>
-      </c>
-      <c r="E36">
-        <v>0.14574400000000001</v>
-      </c>
-      <c r="F36">
-        <v>2.3306E-2</v>
-      </c>
-      <c r="G36" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36">
-        <v>65536</v>
-      </c>
-      <c r="I36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>8</v>
-      </c>
-      <c r="E37">
-        <v>2.56833</v>
-      </c>
-      <c r="F37">
-        <v>5.9209999999999999E-2</v>
-      </c>
-      <c r="G37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37">
-        <v>65536</v>
-      </c>
-      <c r="I37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>8</v>
-      </c>
-      <c r="E38">
-        <v>0.14118800000000001</v>
-      </c>
-      <c r="F38">
-        <v>3.44E-2</v>
-      </c>
-      <c r="G38" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38">
-        <v>65536</v>
-      </c>
-      <c r="I38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>8</v>
-      </c>
-      <c r="E41">
-        <v>61.287602999999997</v>
-      </c>
-      <c r="F41">
-        <v>0.28354299999999999</v>
-      </c>
-      <c r="G41" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41">
-        <v>131072</v>
-      </c>
-      <c r="I41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>8</v>
-      </c>
-      <c r="E42">
-        <v>0.166627</v>
-      </c>
-      <c r="F42">
-        <v>0.19906799999999999</v>
-      </c>
-      <c r="G42" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42">
-        <v>131072</v>
-      </c>
-      <c r="I42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>8</v>
-      </c>
-      <c r="E43">
-        <v>0.13467399999999999</v>
-      </c>
-      <c r="F43">
-        <v>4.2458000000000003E-2</v>
-      </c>
-      <c r="G43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43">
-        <v>131072</v>
-      </c>
-      <c r="I43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>8</v>
-      </c>
-      <c r="E44">
-        <v>13.196961999999999</v>
-      </c>
-      <c r="F44">
-        <v>0.19120300000000001</v>
-      </c>
-      <c r="G44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44">
-        <v>131072</v>
-      </c>
-      <c r="I44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>8</v>
-      </c>
-      <c r="E45">
-        <v>0.16777800000000001</v>
-      </c>
-      <c r="F45">
-        <v>6.1903E-2</v>
-      </c>
-      <c r="G45" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45">
-        <v>131072</v>
-      </c>
-      <c r="I45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>8</v>
-      </c>
-      <c r="E46">
-        <v>0.148921</v>
-      </c>
-      <c r="F46">
-        <v>0.123544</v>
-      </c>
-      <c r="G46" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46">
-        <v>131072</v>
-      </c>
-      <c r="I46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>8</v>
-      </c>
-      <c r="E47">
-        <v>2.4637639999999998</v>
-      </c>
-      <c r="F47">
-        <v>5.3541999999999999E-2</v>
-      </c>
-      <c r="G47" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47">
-        <v>131072</v>
-      </c>
-      <c r="I47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>8</v>
-      </c>
-      <c r="E48">
-        <v>0.132082</v>
-      </c>
-      <c r="F48">
-        <v>3.7817999999999997E-2</v>
-      </c>
-      <c r="G48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48">
-        <v>131072</v>
-      </c>
-      <c r="I48" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>8</v>
-      </c>
-      <c r="E51">
-        <v>59.720064999999998</v>
-      </c>
-      <c r="F51">
-        <v>0.61563299999999999</v>
-      </c>
-      <c r="G51" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51">
-        <v>262144</v>
-      </c>
-      <c r="I51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>8</v>
-      </c>
-      <c r="E52">
-        <v>0.13502700000000001</v>
-      </c>
-      <c r="F52">
-        <v>3.2183000000000003E-2</v>
-      </c>
-      <c r="G52" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52">
-        <v>262144</v>
-      </c>
-      <c r="I52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>8</v>
-      </c>
-      <c r="E53">
-        <v>0.154004</v>
-      </c>
-      <c r="F53">
-        <v>2.3799000000000001E-2</v>
-      </c>
-      <c r="G53" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53">
-        <v>262144</v>
-      </c>
-      <c r="I53" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>8</v>
-      </c>
-      <c r="E54">
-        <v>12.863726</v>
-      </c>
-      <c r="F54">
-        <v>0.24585499999999999</v>
-      </c>
-      <c r="G54" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54">
-        <v>262144</v>
-      </c>
-      <c r="I54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>8</v>
-      </c>
-      <c r="E55">
-        <v>0.144013</v>
-      </c>
-      <c r="F55">
-        <v>1.8211000000000001E-2</v>
-      </c>
-      <c r="G55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55">
-        <v>262144</v>
-      </c>
-      <c r="I55" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>8</v>
-      </c>
-      <c r="E56">
-        <v>0.16032399999999999</v>
-      </c>
-      <c r="F56">
-        <v>3.3612000000000003E-2</v>
-      </c>
-      <c r="G56" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56">
-        <v>262144</v>
-      </c>
-      <c r="I56" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>8</v>
-      </c>
-      <c r="E57">
-        <v>2.3541300000000001</v>
-      </c>
-      <c r="F57">
-        <v>2.3571000000000002E-2</v>
-      </c>
-      <c r="G57" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57">
-        <v>262144</v>
-      </c>
-      <c r="I57" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>8</v>
-      </c>
-      <c r="E58">
-        <v>0.14760699999999999</v>
-      </c>
-      <c r="F58">
-        <v>1.9217999999999999E-2</v>
-      </c>
-      <c r="G58" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58">
-        <v>262144</v>
-      </c>
-      <c r="I58" t="s">
-        <v>15</v>
+    <row r="40" spans="9:10">
+      <c r="I40">
+        <v>2425324</v>
+      </c>
+      <c r="J40">
+        <v>628</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J8"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -8852,21 +12627,279 @@
         <v>8</v>
       </c>
       <c r="E1">
-        <v>290.662103</v>
+        <v>5.8325000000000002E-2</v>
       </c>
       <c r="F1">
-        <v>0.68089500000000003</v>
+        <v>8.4699999999999999E-4</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>5.8865000000000001E-2</v>
+      </c>
+      <c r="F2">
+        <v>1.5009999999999999E-3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>5.9193999999999997E-2</v>
+      </c>
+      <c r="F3">
+        <v>1.967E-3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>6.3867999999999994E-2</v>
+      </c>
+      <c r="F4">
+        <v>1.3929999999999999E-3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>7.9656000000000005E-2</v>
+      </c>
+      <c r="F5">
+        <v>1.0369999999999999E-3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>9.4578939999999996</v>
+      </c>
+      <c r="F6">
+        <v>3.0983E-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6">
+        <v>656584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>57.445694000000003</v>
+      </c>
+      <c r="F7">
+        <v>0.90480700000000003</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7">
+        <v>3791536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>277.60077200000001</v>
+      </c>
+      <c r="F8">
+        <v>0.92299500000000001</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8">
+        <v>17802021</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:N8">
+    <sortCondition ref="N1:N8"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC3DC91-1310-441D-B395-184956B4CCC8}">
+  <dimension ref="A1:K58"/>
+  <sheetViews>
+    <sheetView topLeftCell="D46" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>8</v>
+      </c>
+      <c r="E1">
+        <v>309.81757700000003</v>
+      </c>
+      <c r="F1">
+        <v>6.0307000000000004</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1">
+        <v>1024</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="K1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -8878,99 +12911,123 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>7.8732999999999997E-2</v>
+        <v>69.671840000000003</v>
       </c>
       <c r="F2">
-        <v>5.0300999999999998E-2</v>
+        <v>2.9355609999999999</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
+      <c r="H2">
+        <v>1024</v>
+      </c>
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>14.263610999999999</v>
+      </c>
+      <c r="F3">
+        <v>3.0265879999999998</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>1024</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>1.383408</v>
+      </c>
+      <c r="F4">
+        <v>0.74310900000000002</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>1024</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>1.7719259999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.82324900000000001</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>1024</v>
+      </c>
+      <c r="I5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>6.3293000000000002E-2</v>
-      </c>
-      <c r="F3">
-        <v>4.75E-4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>60.300376999999997</v>
-      </c>
-      <c r="F4">
-        <v>0.61135200000000001</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>4.82E-2</v>
-      </c>
-      <c r="F5">
-        <v>2.333E-3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -8982,21 +13039,27 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>4.4533999999999997E-2</v>
+        <v>1.1762790000000001</v>
       </c>
       <c r="F6">
-        <v>1.403E-3</v>
+        <v>1.1201490000000001</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
+      </c>
+      <c r="H6">
+        <v>1024</v>
       </c>
       <c r="I6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6">
+        <v>656584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -9008,21 +13071,27 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>9.328837</v>
+        <v>1.3510409999999999</v>
       </c>
       <c r="F7">
-        <v>4.6092000000000001E-2</v>
+        <v>1.3711450000000001</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
+      <c r="H7">
+        <v>1024</v>
+      </c>
       <c r="I7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>3791536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -9034,19 +13103,1309 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>4.5220000000000003E-2</v>
+        <v>1.100579</v>
       </c>
       <c r="F8">
-        <v>1.7149999999999999E-3</v>
+        <v>1.1830419999999999</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
+      </c>
+      <c r="H8">
+        <v>1024</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
       </c>
+      <c r="K8">
+        <v>17802021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>122.998852</v>
+      </c>
+      <c r="F11">
+        <v>4.8191610000000003</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>4096</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>34.887587000000003</v>
+      </c>
+      <c r="F12">
+        <v>3.66587</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>4096</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>6.246804</v>
+      </c>
+      <c r="F13">
+        <v>1.1098889999999999</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>4096</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>0.32927200000000001</v>
+      </c>
+      <c r="F14">
+        <v>0.65156800000000004</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>4096</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>0.592449</v>
+      </c>
+      <c r="F15">
+        <v>1.033218</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15">
+        <v>4096</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>0.21263099999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.28990500000000002</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>4096</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16">
+        <v>656584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>0.367228</v>
+      </c>
+      <c r="F17">
+        <v>0.73179400000000006</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17">
+        <v>4096</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17">
+        <v>3791536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>0.23605699999999999</v>
+      </c>
+      <c r="F18">
+        <v>0.429838</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>4096</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18">
+        <v>17802021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>109.48272299999999</v>
+      </c>
+      <c r="F21">
+        <v>2.4040499999999998</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21">
+        <v>16384</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>17.109575</v>
+      </c>
+      <c r="F22">
+        <v>1.2752680000000001</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>16384</v>
+      </c>
+      <c r="I22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>3.4020800000000002</v>
+      </c>
+      <c r="F23">
+        <v>0.35112700000000002</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23">
+        <v>16384</v>
+      </c>
+      <c r="I23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>0.148204</v>
+      </c>
+      <c r="F24">
+        <v>2.7481999999999999E-2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>16384</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>0.34218999999999999</v>
+      </c>
+      <c r="F25">
+        <v>0.71499699999999999</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25">
+        <v>16384</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>0.17263000000000001</v>
+      </c>
+      <c r="F26">
+        <v>4.3985999999999997E-2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>16384</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26">
+        <v>656584</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>0.20899699999999999</v>
+      </c>
+      <c r="F27">
+        <v>0.37517400000000001</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27">
+        <v>16384</v>
+      </c>
+      <c r="I27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27">
+        <v>3791536</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>0.16848399999999999</v>
+      </c>
+      <c r="F28">
+        <v>2.0591999999999999E-2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28">
+        <v>16384</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28">
+        <v>17802021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>63.587524000000002</v>
+      </c>
+      <c r="F31">
+        <v>0.61327500000000001</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31">
+        <v>65536</v>
+      </c>
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>14.129331000000001</v>
+      </c>
+      <c r="F32">
+        <v>0.648536</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>65536</v>
+      </c>
+      <c r="I32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>2.56833</v>
+      </c>
+      <c r="F33">
+        <v>5.9209999999999999E-2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33">
+        <v>65536</v>
+      </c>
+      <c r="I33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>0.169517</v>
+      </c>
+      <c r="F34">
+        <v>5.7532E-2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34">
+        <v>65536</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>0.21640200000000001</v>
+      </c>
+      <c r="F35">
+        <v>0.41789500000000002</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35">
+        <v>65536</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>0.14574400000000001</v>
+      </c>
+      <c r="F36">
+        <v>2.3306E-2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36">
+        <v>65536</v>
+      </c>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36">
+        <v>656584</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>0.14164099999999999</v>
+      </c>
+      <c r="F37">
+        <v>1.7852E-2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37">
+        <v>65536</v>
+      </c>
+      <c r="I37" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37">
+        <v>3791536</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>0.14118800000000001</v>
+      </c>
+      <c r="F38">
+        <v>3.44E-2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>65536</v>
+      </c>
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38">
+        <v>17802021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>61.287602999999997</v>
+      </c>
+      <c r="F41">
+        <v>0.28354299999999999</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41">
+        <v>131072</v>
+      </c>
+      <c r="I41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>13.196961999999999</v>
+      </c>
+      <c r="F42">
+        <v>0.19120300000000001</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>131072</v>
+      </c>
+      <c r="I42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <v>2.4637639999999998</v>
+      </c>
+      <c r="F43">
+        <v>5.3541999999999999E-2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43">
+        <v>131072</v>
+      </c>
+      <c r="I43" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>0.16777800000000001</v>
+      </c>
+      <c r="F44">
+        <v>6.1903E-2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>131072</v>
+      </c>
+      <c r="I44" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>0.166627</v>
+      </c>
+      <c r="F45">
+        <v>0.19906799999999999</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45">
+        <v>131072</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>0.148921</v>
+      </c>
+      <c r="F46">
+        <v>0.123544</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46">
+        <v>131072</v>
+      </c>
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46">
+        <v>656584</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47">
+        <v>0.13467399999999999</v>
+      </c>
+      <c r="F47">
+        <v>4.2458000000000003E-2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47">
+        <v>131072</v>
+      </c>
+      <c r="I47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47">
+        <v>3791536</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>0.132082</v>
+      </c>
+      <c r="F48">
+        <v>3.7817999999999997E-2</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48">
+        <v>131072</v>
+      </c>
+      <c r="I48" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48">
+        <v>17802021</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
+      </c>
+      <c r="E51">
+        <v>59.720064999999998</v>
+      </c>
+      <c r="F51">
+        <v>0.61563299999999999</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51">
+        <v>262144</v>
+      </c>
+      <c r="I51" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>12.863726</v>
+      </c>
+      <c r="F52">
+        <v>0.24585499999999999</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52">
+        <v>262144</v>
+      </c>
+      <c r="I52" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>8</v>
+      </c>
+      <c r="E53">
+        <v>2.3541300000000001</v>
+      </c>
+      <c r="F53">
+        <v>2.3571000000000002E-2</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53">
+        <v>262144</v>
+      </c>
+      <c r="I53" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>0.144013</v>
+      </c>
+      <c r="F54">
+        <v>1.8211000000000001E-2</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54">
+        <v>262144</v>
+      </c>
+      <c r="I54" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>8</v>
+      </c>
+      <c r="E55">
+        <v>0.13502700000000001</v>
+      </c>
+      <c r="F55">
+        <v>3.2183000000000003E-2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55">
+        <v>262144</v>
+      </c>
+      <c r="I55" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>8</v>
+      </c>
+      <c r="E56">
+        <v>0.16032399999999999</v>
+      </c>
+      <c r="F56">
+        <v>3.3612000000000003E-2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56">
+        <v>262144</v>
+      </c>
+      <c r="I56" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56">
+        <v>656584</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>0.154004</v>
+      </c>
+      <c r="F57">
+        <v>2.3799000000000001E-2</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57">
+        <v>262144</v>
+      </c>
+      <c r="I57" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57">
+        <v>3791536</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>0.14760699999999999</v>
+      </c>
+      <c r="F58">
+        <v>1.9217999999999999E-2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58">
+        <v>262144</v>
+      </c>
+      <c r="I58" t="s">
+        <v>15</v>
+      </c>
+      <c r="K58">
+        <v>17802021</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A51:K58">
+    <sortCondition ref="K51:K58"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>